--- a/natmiOut/OldD0/LR-pairs_lrc2p/Col18a1-Gpc4.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Col18a1-Gpc4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,55 +525,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.4771272701056</v>
+        <v>15.79399266666667</v>
       </c>
       <c r="H2">
-        <v>6.4771272701056</v>
+        <v>47.381978</v>
       </c>
       <c r="I2">
-        <v>0.1499107997975075</v>
+        <v>0.2968109173698557</v>
       </c>
       <c r="J2">
-        <v>0.1499107997975075</v>
+        <v>0.2968109173698557</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>30.7905652479861</v>
+        <v>6.992380999999999</v>
       </c>
       <c r="N2">
-        <v>30.7905652479861</v>
+        <v>20.977143</v>
       </c>
       <c r="O2">
-        <v>0.7532401300196574</v>
+        <v>0.1454502834669897</v>
       </c>
       <c r="P2">
-        <v>0.7532401300196574</v>
+        <v>0.1454502834669897</v>
       </c>
       <c r="Q2">
-        <v>199.4344098296966</v>
+        <v>110.4376142365393</v>
       </c>
       <c r="R2">
-        <v>199.4344098296966</v>
+        <v>993.9385281288539</v>
       </c>
       <c r="S2">
-        <v>0.1129188303308254</v>
+        <v>0.04317123206754277</v>
       </c>
       <c r="T2">
-        <v>0.1129188303308254</v>
+        <v>0.04317123206754276</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.4771272701056</v>
+        <v>15.79399266666667</v>
       </c>
       <c r="H3">
-        <v>6.4771272701056</v>
+        <v>47.381978</v>
       </c>
       <c r="I3">
-        <v>0.1499107997975075</v>
+        <v>0.2968109173698557</v>
       </c>
       <c r="J3">
-        <v>0.1499107997975075</v>
+        <v>0.2968109173698557</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>10.0869239096648</v>
+        <v>30.83466</v>
       </c>
       <c r="N3">
-        <v>10.0869239096648</v>
+        <v>92.50398</v>
       </c>
       <c r="O3">
-        <v>0.2467598699803426</v>
+        <v>0.641399551541635</v>
       </c>
       <c r="P3">
-        <v>0.2467598699803426</v>
+        <v>0.641399551541635</v>
       </c>
       <c r="Q3">
-        <v>65.33428992677007</v>
+        <v>487.0023939191601</v>
       </c>
       <c r="R3">
-        <v>65.33428992677007</v>
+        <v>4383.021545272441</v>
       </c>
       <c r="S3">
-        <v>0.03699196946668212</v>
+        <v>0.1903743892936867</v>
       </c>
       <c r="T3">
-        <v>0.03699196946668212</v>
+        <v>0.1903743892936867</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>24.419269130392</v>
+        <v>15.79399266666667</v>
       </c>
       <c r="H4">
-        <v>24.419269130392</v>
+        <v>47.381978</v>
       </c>
       <c r="I4">
-        <v>0.5651752718683212</v>
+        <v>0.2968109173698557</v>
       </c>
       <c r="J4">
-        <v>0.5651752718683212</v>
+        <v>0.2968109173698557</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>30.7905652479861</v>
+        <v>10.246987</v>
       </c>
       <c r="N4">
-        <v>30.7905652479861</v>
+        <v>30.740961</v>
       </c>
       <c r="O4">
-        <v>0.7532401300196574</v>
+        <v>0.2131501649913754</v>
       </c>
       <c r="P4">
-        <v>0.7532401300196574</v>
+        <v>0.2131501649913754</v>
       </c>
       <c r="Q4">
-        <v>751.8830994674676</v>
+        <v>161.8408375334287</v>
       </c>
       <c r="R4">
-        <v>751.8830994674676</v>
+        <v>1456.567537800858</v>
       </c>
       <c r="S4">
-        <v>0.4257126952659895</v>
+        <v>0.06326529600862622</v>
       </c>
       <c r="T4">
-        <v>0.4257126952659895</v>
+        <v>0.06326529600862621</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,60 +711,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>24.419269130392</v>
+        <v>24.86954866666666</v>
       </c>
       <c r="H5">
-        <v>24.419269130392</v>
+        <v>74.60864599999999</v>
       </c>
       <c r="I5">
-        <v>0.5651752718683212</v>
+        <v>0.4673646309781075</v>
       </c>
       <c r="J5">
-        <v>0.5651752718683212</v>
+        <v>0.4673646309781075</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>10.0869239096648</v>
+        <v>6.992380999999999</v>
       </c>
       <c r="N5">
-        <v>10.0869239096648</v>
+        <v>20.977143</v>
       </c>
       <c r="O5">
-        <v>0.2467598699803426</v>
+        <v>0.1454502834669897</v>
       </c>
       <c r="P5">
-        <v>0.2467598699803426</v>
+        <v>0.1454502834669897</v>
       </c>
       <c r="Q5">
-        <v>246.3153096478906</v>
+        <v>173.8973595753753</v>
       </c>
       <c r="R5">
-        <v>246.3153096478906</v>
+        <v>1565.076236178378</v>
       </c>
       <c r="S5">
-        <v>0.1394625766023317</v>
+        <v>0.06797831805821077</v>
       </c>
       <c r="T5">
-        <v>0.1394625766023317</v>
+        <v>0.06797831805821077</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -776,57 +776,57 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>12.3101456155186</v>
+        <v>24.86954866666666</v>
       </c>
       <c r="H6">
-        <v>12.3101456155186</v>
+        <v>74.60864599999999</v>
       </c>
       <c r="I6">
-        <v>0.2849139283341713</v>
+        <v>0.4673646309781075</v>
       </c>
       <c r="J6">
-        <v>0.2849139283341713</v>
+        <v>0.4673646309781075</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>30.7905652479861</v>
+        <v>30.83466</v>
       </c>
       <c r="N6">
-        <v>30.7905652479861</v>
+        <v>92.50398</v>
       </c>
       <c r="O6">
-        <v>0.7532401300196574</v>
+        <v>0.641399551541635</v>
       </c>
       <c r="P6">
-        <v>0.7532401300196574</v>
+        <v>0.641399551541635</v>
       </c>
       <c r="Q6">
-        <v>379.0363417868355</v>
+        <v>766.8440774901198</v>
       </c>
       <c r="R6">
-        <v>379.0363417868355</v>
+        <v>6901.596697411079</v>
       </c>
       <c r="S6">
-        <v>0.2146086044228425</v>
+        <v>0.2997674647157799</v>
       </c>
       <c r="T6">
-        <v>0.2146086044228425</v>
+        <v>0.2997674647157799</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,52 +838,238 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>12.3101456155186</v>
+        <v>24.86954866666666</v>
       </c>
       <c r="H7">
-        <v>12.3101456155186</v>
+        <v>74.60864599999999</v>
       </c>
       <c r="I7">
-        <v>0.2849139283341713</v>
+        <v>0.4673646309781075</v>
       </c>
       <c r="J7">
-        <v>0.2849139283341713</v>
+        <v>0.4673646309781075</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.0869239096648</v>
+        <v>10.246987</v>
       </c>
       <c r="N7">
-        <v>10.0869239096648</v>
+        <v>30.740961</v>
       </c>
       <c r="O7">
-        <v>0.2467598699803426</v>
+        <v>0.2131501649913754</v>
       </c>
       <c r="P7">
-        <v>0.2467598699803426</v>
+        <v>0.2131501649913754</v>
       </c>
       <c r="Q7">
-        <v>124.1715021406299</v>
+        <v>254.8379418832006</v>
       </c>
       <c r="R7">
-        <v>124.1715021406299</v>
+        <v>2293.541476948806</v>
       </c>
       <c r="S7">
-        <v>0.07030532391132875</v>
+        <v>0.09961884820411689</v>
       </c>
       <c r="T7">
-        <v>0.07030532391132875</v>
+        <v>0.09961884820411689</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>12.54876233333333</v>
+      </c>
+      <c r="H8">
+        <v>37.646287</v>
+      </c>
+      <c r="I8">
+        <v>0.2358244516520368</v>
+      </c>
+      <c r="J8">
+        <v>0.2358244516520368</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>6.992380999999999</v>
+      </c>
+      <c r="N8">
+        <v>20.977143</v>
+      </c>
+      <c r="O8">
+        <v>0.1454502834669897</v>
+      </c>
+      <c r="P8">
+        <v>0.1454502834669897</v>
+      </c>
+      <c r="Q8">
+        <v>87.74572731311567</v>
+      </c>
+      <c r="R8">
+        <v>789.7115458180409</v>
+      </c>
+      <c r="S8">
+        <v>0.03430073334123616</v>
+      </c>
+      <c r="T8">
+        <v>0.03430073334123616</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>12.54876233333333</v>
+      </c>
+      <c r="H9">
+        <v>37.646287</v>
+      </c>
+      <c r="I9">
+        <v>0.2358244516520368</v>
+      </c>
+      <c r="J9">
+        <v>0.2358244516520368</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>30.83466</v>
+      </c>
+      <c r="N9">
+        <v>92.50398</v>
+      </c>
+      <c r="O9">
+        <v>0.641399551541635</v>
+      </c>
+      <c r="P9">
+        <v>0.641399551541635</v>
+      </c>
+      <c r="Q9">
+        <v>386.93681996914</v>
+      </c>
+      <c r="R9">
+        <v>3482.43137972226</v>
+      </c>
+      <c r="S9">
+        <v>0.1512576975321684</v>
+      </c>
+      <c r="T9">
+        <v>0.1512576975321684</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>12.54876233333333</v>
+      </c>
+      <c r="H10">
+        <v>37.646287</v>
+      </c>
+      <c r="I10">
+        <v>0.2358244516520368</v>
+      </c>
+      <c r="J10">
+        <v>0.2358244516520368</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>10.246987</v>
+      </c>
+      <c r="N10">
+        <v>30.740961</v>
+      </c>
+      <c r="O10">
+        <v>0.2131501649913754</v>
+      </c>
+      <c r="P10">
+        <v>0.2131501649913754</v>
+      </c>
+      <c r="Q10">
+        <v>128.5870044957563</v>
+      </c>
+      <c r="R10">
+        <v>1157.283040461807</v>
+      </c>
+      <c r="S10">
+        <v>0.05026602077863228</v>
+      </c>
+      <c r="T10">
+        <v>0.05026602077863227</v>
       </c>
     </row>
   </sheetData>
